--- a/biology/Zoologie/Archaeoprepona_chalciope/Archaeoprepona_chalciope.xlsx
+++ b/biology/Zoologie/Archaeoprepona_chalciope/Archaeoprepona_chalciope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeoprepona chalciope est un insecte lépidoptère diurne de la famille des Nymphalidae, de la sous-famille des Charaxinae et du genre Archaeoprepona.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeoprepona chalciope a été décrit par Jacob Hübner en 1823 sous le nom initial de Morpho chalciope.
-Synonyme : Prepona chalciope[1].
+Synonyme : Prepona chalciope.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeoprepona chalciope est un grand papillon aux ailes antérieures à bord costal bossu, apex arrondi, bord externe concave et aux ailes postérieures très discrètement festonnées.
 Le dessus est marron roux foncé marqué aux ailes antérieures et aux ailes postérieures d'une large bande bleu outremer.
@@ -573,12 +589,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archaeoprepona chalciope est présent au Brésil et au Paraguay,.
+</t>
         </is>
       </c>
     </row>
@@ -608,10 +627,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Archaeoprepona chalciope est présent au Brésil et au Paraguay[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Archaeoprepona chalciope, sur Wikimedia CommonsArchaeoprepona chalciope, sur Wikispecies
 </t>
